--- a/Basededatos2023.xlsx
+++ b/Basededatos2023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AGARCIA\Desktop\proyectos 2021\PROYECTO ANÁLISIS DE DATOS 2021\EVALUACIONES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ale\Desktop\ISIL_2023_01\ANALISIS_DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D709DB87-E555-46C4-934A-120508F69ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="7290"/>
+    <workbookView xWindow="1728" yWindow="2688" windowWidth="21312" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="105">
   <si>
     <t>Sexo</t>
   </si>
@@ -129,16 +130,10 @@
     <t xml:space="preserve">La Punta </t>
   </si>
   <si>
-    <t xml:space="preserve">Marketing </t>
-  </si>
-  <si>
     <t xml:space="preserve">Gossip girl </t>
   </si>
   <si>
     <t xml:space="preserve">Rimac </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursos Humanos </t>
   </si>
   <si>
     <t>Villa el Salvador</t>
@@ -348,7 +343,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -404,8 +399,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -621,83 +616,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" customWidth="1"/>
-    <col min="5" max="17" width="21.5703125" customWidth="1"/>
+    <col min="1" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" customWidth="1"/>
+    <col min="5" max="17" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="I2" s="1">
         <v>5</v>
@@ -706,339 +701,339 @@
         <v>7</v>
       </c>
       <c r="K2" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1">
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="1">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="1">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="1">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="1">
+    <row r="9" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C9" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="1">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="J10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1">
         <v>24</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="1">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F11" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I11" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K11" s="1">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -1047,42 +1042,42 @@
         <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="I13" s="1">
         <v>4</v>
@@ -1091,173 +1086,173 @@
         <v>7</v>
       </c>
       <c r="K13" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="I14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K14" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="I15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K15" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1">
         <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="1">
-        <v>15</v>
-      </c>
       <c r="J16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K16" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I17" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K17" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="I18" s="1">
         <v>4</v>
@@ -1266,138 +1261,138 @@
         <v>7</v>
       </c>
       <c r="K18" s="1">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F19" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="I19" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K19" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="1">
+      <c r="C21" s="1">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="1">
         <v>4</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="1">
-        <v>29</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="1">
-        <v>4</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="1">
-        <v>4</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="1">
-        <v>19</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I22" s="1">
         <v>4</v>
@@ -1406,167 +1401,167 @@
         <v>7</v>
       </c>
       <c r="K22" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F23" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="I23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K23" s="1">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="1">
+        <v>8</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="1">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1">
         <v>17</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="1">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="1">
-        <v>22</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="1">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="1">
-        <v>3</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="1">
-        <v>17</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F27" s="1">
         <v>5</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="1">
-        <v>3</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="1">
-        <v>24</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="1">
-        <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>27</v>
@@ -1575,389 +1570,389 @@
         <v>20</v>
       </c>
       <c r="I27" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K27" s="1">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="1">
         <v>38</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="D29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="1">
         <v>5</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="1">
-        <v>2</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="1">
-        <v>24</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K29" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I30" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="K30" s="1">
         <v>800</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="F31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="1">
+        <v>24</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="1">
+        <v>7</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1">
+        <v>22</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="1">
+        <v>3</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="1">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="1">
         <v>10</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="1">
+      <c r="J34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="1">
         <v>1700</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1">
+    <row r="35" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1">
         <v>20</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" s="1">
         <v>5</v>
       </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="1">
-        <v>3</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="1">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="1">
-        <v>26</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="1">
-        <v>5</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="1">
-        <v>4</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="1">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="1">
-        <v>23</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="1">
-        <v>8</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="1">
-        <v>17</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I35" s="1">
-        <v>15</v>
-      </c>
       <c r="J35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K35" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F36" s="1">
         <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="I36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K36" s="1">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K37" s="1">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F38" s="1">
         <v>2</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="I38" s="1">
         <v>3</v>
@@ -1966,62 +1961,62 @@
         <v>7</v>
       </c>
       <c r="K38" s="1">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K39" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="C40" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>27</v>
@@ -2030,21 +2025,21 @@
         <v>28</v>
       </c>
       <c r="I40" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K40" s="1">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
         <v>22</v>
@@ -2053,7 +2048,7 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F41" s="1">
         <v>3</v>
@@ -2062,33 +2057,33 @@
         <v>27</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="I41" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K41" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C42" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F42" s="1">
         <v>3</v>
@@ -2097,7 +2092,7 @@
         <v>27</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I42" s="1">
         <v>3</v>
@@ -2109,65 +2104,65 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="C43" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="F43" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="I43" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K43" s="1">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C44" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="F44" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I44" s="1">
         <v>4</v>
@@ -2176,24 +2171,24 @@
         <v>7</v>
       </c>
       <c r="K44" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C45" s="1">
         <v>24</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F45" s="1">
         <v>2</v>
@@ -2202,112 +2197,112 @@
         <v>27</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="I45" s="1">
+        <v>3</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1">
+        <v>21</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="1">
         <v>1</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K45" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="1">
-        <v>18</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="G46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" s="1">
-        <v>2</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I46" s="1">
-        <v>5</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K46" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C47" s="1">
         <v>29</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I47" s="1">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K47" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C48" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="F48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I48" s="1">
         <v>2</v>
@@ -2316,211 +2311,211 @@
         <v>7</v>
       </c>
       <c r="K48" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C49" s="1">
         <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F49" s="1">
+        <v>3</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I49" s="1">
+        <v>7</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="1">
+        <v>17</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="1">
         <v>0</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I49" s="1">
+      <c r="G50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" s="1">
+        <v>15</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="1">
+        <v>29</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="1">
         <v>4</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K49" s="1">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="1">
-        <v>20</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="1">
-        <v>3</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I50" s="1">
-        <v>7</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="1">
-        <v>20</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
       <c r="G51" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I51" s="1">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K51" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C52" s="1">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F52" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="I52" s="1">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K52" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C53" s="1">
+        <v>23</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="F53" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="I53" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K53" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C54" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I54" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>7</v>
@@ -2529,65 +2524,65 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C55" s="1">
+        <v>23</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F55" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="I55" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K55" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C56" s="1">
         <v>23</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="I56" s="1">
         <v>3</v>
@@ -2596,48 +2591,53 @@
         <v>7</v>
       </c>
       <c r="K56" s="1">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C57" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="I57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K57" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K57">
-    <sortState ref="A2:L57">
-      <sortCondition ref="H1:H57"/>
+  <autoFilter ref="A1:K57" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Recursos Humanos"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K57">
+      <sortCondition ref="D1:D57"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
